--- a/matura.xlsx
+++ b/matura.xlsx
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,14 +581,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.61111111111111116</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.36206896551724138</v>
+        <v>0.35087719298245612</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="H11" s="7">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,9 @@
       <c r="C31" s="5">
         <v>42753</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <v>42808</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1327,7 +1329,7 @@
       </c>
       <c r="M1" s="3">
         <f ca="1">J5/J7</f>
-        <v>2.5660377358490565</v>
+        <v>2.6153846153846154</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1432,7 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">J6-TODAY()</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Zadania</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Zadań na dzień:</t>
+  </si>
+  <si>
+    <t>bez 5</t>
   </si>
 </sst>
 </file>
@@ -547,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.62962962962962965</v>
+        <v>0.64814814814814814</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.35087719298245612</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -751,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -803,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1021,8 +1024,12 @@
       <c r="C32" s="5">
         <v>42754</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="5">
+        <v>42808</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.64814814814814814</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.33333333333333331</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,9 @@
       <c r="C33" s="5">
         <v>42755</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>42808</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1048,7 +1050,9 @@
       <c r="C34" s="5">
         <v>42756</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>42808</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.68518518518518523</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.2982456140350877</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,9 @@
       <c r="C35" s="5">
         <v>42757</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5">
+        <v>42808</v>
+      </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.70370370370370372</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.2807017543859649</v>
+        <v>0.28301886792452829</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="H11" s="7">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,9 @@
       <c r="C36" s="5">
         <v>42758</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5">
+        <v>42812</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1342,7 +1344,7 @@
       </c>
       <c r="M1" s="3">
         <f ca="1">J5/J7</f>
-        <v>2.6153846153846154</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1445,7 +1447,7 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">J6-TODAY()</f>
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.72222222222222221</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.28301886792452829</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,9 @@
       <c r="C37" s="5">
         <v>42759</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5">
+        <v>42812</v>
+      </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.7407407407407407</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.26415094339622641</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,9 @@
       <c r="C38" s="5">
         <v>42760</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5">
+        <v>42812</v>
+      </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.7592592592592593</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.24528301886792453</v>
+        <v>0.24</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="H11" s="7">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,9 @@
       <c r="C49" s="5">
         <v>42771</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="5">
+        <v>42815</v>
+      </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -1348,7 +1350,7 @@
       </c>
       <c r="M1" s="3">
         <f ca="1">J5/J7</f>
-        <v>2.8333333333333335</v>
+        <v>3.0222222222222221</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1451,7 +1453,7 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">J6-TODAY()</f>
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +584,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.77777777777777779</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,9 @@
       <c r="C50" s="5">
         <v>42772</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5">
+        <v>42815</v>
+      </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Zadania</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>bez 5</t>
+  </si>
+  <si>
+    <t>Jedno z zadań zgadza sięz rozwiązaniem z CKE, ale nie zgadza się z odpowiedziami</t>
+  </si>
+  <si>
+    <t>W zadaniu 5 jest o 1 stacja za dużo</t>
   </si>
 </sst>
 </file>
@@ -550,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +590,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.79629629629629628</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.22</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -734,7 +740,7 @@
       </c>
       <c r="H11" s="7">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -754,7 +760,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -806,7 +812,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,7 +850,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1248,8 +1254,12 @@
       <c r="C51" s="5">
         <v>42773</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
+      <c r="D51" s="5">
+        <v>42823</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
@@ -1258,8 +1268,12 @@
       <c r="C52" s="5">
         <v>42774</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="5">
+        <v>42823</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
@@ -1352,7 +1366,7 @@
       </c>
       <c r="M1" s="3">
         <f ca="1">J5/J7</f>
-        <v>3.0222222222222221</v>
+        <v>3.6756756756756759</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1455,7 +1469,7 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">J6-TODAY()</f>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">

--- a/matura.xlsx
+++ b/matura.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,14 +590,14 @@
       </c>
       <c r="F1" s="2">
         <f>(H16-H15)/H16</f>
-        <v>0.83333333333333337</v>
+        <v>0.85185185185185186</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">H15/H11</f>
-        <v>0.21428571428571427</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,9 @@
       <c r="C53" s="5">
         <v>42775</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5">
+        <v>42823</v>
+      </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
